--- a/excelData/Processos arquivados - BoTRT.xlsx
+++ b/excelData/Processos arquivados - BoTRT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Documents\awer\ProjetosElectron\SCCBOT_EXCEL\SCC_BOT_EXCEL\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awer-Bost\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6928E84-15CB-4C1F-86A6-29FB921A137C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C817F69-A5CC-40BD-8646-D7700371A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="2964" windowWidth="15432" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12564" yWindow="972" windowWidth="8664" windowHeight="14364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="60">
   <si>
     <t>NCM</t>
   </si>
@@ -120,82 +120,91 @@
     <t>Usuário</t>
   </si>
   <si>
+    <t>TRT-1</t>
+  </si>
+  <si>
+    <t>TRT-2</t>
+  </si>
+  <si>
+    <t>TRT-3</t>
+  </si>
+  <si>
+    <t>TRT-4</t>
+  </si>
+  <si>
+    <t>TRT-5</t>
+  </si>
+  <si>
+    <t>TRT-6</t>
+  </si>
+  <si>
+    <t>TRT-7</t>
+  </si>
+  <si>
+    <t>TRT-8</t>
+  </si>
+  <si>
+    <t>TRT-9</t>
+  </si>
+  <si>
+    <t>TRT-10</t>
+  </si>
+  <si>
+    <t>TRT-11</t>
+  </si>
+  <si>
+    <t>TRT-12</t>
+  </si>
+  <si>
+    <t>TRT-13</t>
+  </si>
+  <si>
+    <t>TRT-14</t>
+  </si>
+  <si>
+    <t>TRT-15</t>
+  </si>
+  <si>
+    <t>TRT-16</t>
+  </si>
+  <si>
+    <t>TRT-17</t>
+  </si>
+  <si>
+    <t>TRT-18</t>
+  </si>
+  <si>
+    <t>TRT-19</t>
+  </si>
+  <si>
+    <t>TRT-20</t>
+  </si>
+  <si>
+    <t>TRT-21</t>
+  </si>
+  <si>
+    <t>TRT-22</t>
+  </si>
+  <si>
+    <t>TRT-23</t>
+  </si>
+  <si>
+    <t>TRT-24</t>
+  </si>
+  <si>
+    <t>Selecione o TRT</t>
+  </si>
+  <si>
+    <t>Data inicial</t>
+  </si>
+  <si>
+    <t>Data final</t>
+  </si>
+  <si>
+    <t>Bqq188332@</t>
+  </si>
+  <si>
     <t>Senha</t>
-  </si>
-  <si>
-    <t>TRT-1</t>
-  </si>
-  <si>
-    <t>TRT-2</t>
-  </si>
-  <si>
-    <t>TRT-3</t>
-  </si>
-  <si>
-    <t>TRT-4</t>
-  </si>
-  <si>
-    <t>TRT-5</t>
-  </si>
-  <si>
-    <t>TRT-6</t>
-  </si>
-  <si>
-    <t>TRT-7</t>
-  </si>
-  <si>
-    <t>TRT-8</t>
-  </si>
-  <si>
-    <t>TRT-9</t>
-  </si>
-  <si>
-    <t>TRT-10</t>
-  </si>
-  <si>
-    <t>TRT-11</t>
-  </si>
-  <si>
-    <t>TRT-12</t>
-  </si>
-  <si>
-    <t>TRT-13</t>
-  </si>
-  <si>
-    <t>TRT-14</t>
-  </si>
-  <si>
-    <t>TRT-15</t>
-  </si>
-  <si>
-    <t>TRT-16</t>
-  </si>
-  <si>
-    <t>TRT-17</t>
-  </si>
-  <si>
-    <t>TRT-18</t>
-  </si>
-  <si>
-    <t>TRT-19</t>
-  </si>
-  <si>
-    <t>TRT-20</t>
-  </si>
-  <si>
-    <t>TRT-21</t>
-  </si>
-  <si>
-    <t>TRT-22</t>
-  </si>
-  <si>
-    <t>TRT-23</t>
-  </si>
-  <si>
-    <t>TRT-24</t>
-  </si>
-  <si>
-    <t>Selecione o TRT</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -278,6 +287,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,43 +636,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.8984375" customWidth="1"/>
-    <col min="4" max="10" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.69921875" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="1.09765625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B2" s="6">
+        <v>45536</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45565</v>
+      </c>
+      <c r="D2">
+        <v>15992496858</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Insira uma data válida" error="A data deve estar no formado DD/MM/AAAA. _x000a__x000a_Por exemplo: 24/03/2024" promptTitle="Insira a data da busca" prompt="A data deve estar no formado DD/MM/AAAA. _x000a_Por exemplo: 24/03/2024" sqref="B2:C101" xr:uid="{0F739D4F-76EB-4B21-9F9E-4384D66C2C8B}">
+      <formula1>36526</formula1>
+      <formula2>77432</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -668,7 +1097,7 @@
           <x14:formula1>
             <xm:f>Planilha1!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A127</xm:sqref>
+          <xm:sqref>A2:A6 A10:A126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2130,7 +2559,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2138,7 +2567,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2146,7 +2575,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2154,7 +2583,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2162,7 +2591,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2170,7 +2599,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2178,7 +2607,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2186,7 +2615,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2194,7 +2623,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2202,7 +2631,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -2210,7 +2639,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2218,7 +2647,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -2226,7 +2655,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2234,7 +2663,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2242,7 +2671,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -2250,7 +2679,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -2258,7 +2687,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2266,7 +2695,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2274,7 +2703,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2282,7 +2711,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -2290,7 +2719,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -2298,7 +2727,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2306,7 +2735,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2314,7 +2743,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>25</v>
